--- a/edges.xlsx
+++ b/edges.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="edges sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C108" sqref="B108:C108"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/edges.xlsx
+++ b/edges.xlsx
@@ -68,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,880 +412,880 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>33</v>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
+      <c r="B10" s="1">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
+      <c r="B11" s="1">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
+      <c r="B12" s="1">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
+      <c r="B14" s="1">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
+      <c r="B15" s="1">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
+      <c r="B17" s="1">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
+      <c r="B18" s="1">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
+      <c r="B19" s="1">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
+      <c r="B20" s="1">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
+      <c r="B21" s="1">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
+      <c r="B25" s="1">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>11</v>
+      <c r="B28" s="1">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>11</v>
+      <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
+      <c r="B31" s="1">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>12</v>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>11</v>
+      <c r="B33" s="1">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>13</v>
+      <c r="B34" s="1">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>13</v>
-      </c>
-      <c r="C35">
-        <v>12</v>
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>14</v>
-      </c>
-      <c r="C36">
-        <v>15</v>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
+      <c r="B37" s="1">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>15</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="1">
         <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>15</v>
+      <c r="B39" s="1">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>15</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="1">
         <v>24</v>
+      </c>
+      <c r="C40" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>24</v>
-      </c>
-      <c r="C41">
-        <v>15</v>
+      <c r="B41" s="1">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>24</v>
       </c>
-      <c r="C42">
-        <v>12</v>
+      <c r="C42" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>24</v>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>16</v>
+      <c r="B44" s="1">
+        <v>28</v>
+      </c>
+      <c r="C44" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>16</v>
-      </c>
-      <c r="C45">
-        <v>12</v>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>17</v>
-      </c>
-      <c r="C46">
-        <v>16</v>
+      <c r="B46" s="1">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>17</v>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>17</v>
-      </c>
-      <c r="C48">
-        <v>18</v>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>18</v>
-      </c>
-      <c r="C49">
-        <v>17</v>
+      <c r="B49" s="1">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>17</v>
+      <c r="B50" s="1">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>17</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
+      <c r="B51" s="1">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>9</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
+      <c r="B52" s="1">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>20</v>
-      </c>
-      <c r="C53">
-        <v>9</v>
+      <c r="B53" s="1">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>20</v>
-      </c>
-      <c r="C54">
-        <v>18</v>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>18</v>
-      </c>
-      <c r="C55">
-        <v>20</v>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>18</v>
-      </c>
-      <c r="C56">
-        <v>19</v>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>19</v>
-      </c>
-      <c r="C57">
-        <v>18</v>
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>19</v>
-      </c>
-      <c r="C58">
-        <v>16</v>
+      <c r="B58" s="1">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>16</v>
-      </c>
-      <c r="C59">
-        <v>19</v>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>19</v>
-      </c>
-      <c r="C60">
-        <v>23</v>
+      <c r="B60" s="1">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>23</v>
-      </c>
-      <c r="C61">
-        <v>19</v>
+      <c r="B61" s="1">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>24</v>
-      </c>
-      <c r="C62">
-        <v>23</v>
+      <c r="B62" s="1">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>23</v>
-      </c>
-      <c r="C63">
-        <v>24</v>
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>20</v>
-      </c>
-      <c r="C64">
-        <v>21</v>
+      <c r="B64" s="1">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>21</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
+      <c r="B65" s="1">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>21</v>
-      </c>
-      <c r="C66">
-        <v>22</v>
+      <c r="B66" s="1">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
+        <v>23</v>
+      </c>
+      <c r="C67" s="1">
         <v>22</v>
-      </c>
-      <c r="C67">
-        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>22</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="1">
         <v>23</v>
+      </c>
+      <c r="C68" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>23</v>
-      </c>
-      <c r="C69">
-        <v>22</v>
+      <c r="B69" s="1">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>24</v>
-      </c>
-      <c r="C70">
-        <v>29</v>
+      <c r="B70" s="1">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>29</v>
-      </c>
-      <c r="C71">
-        <v>24</v>
+      <c r="B71" s="1">
+        <v>20</v>
+      </c>
+      <c r="C71" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>24</v>
-      </c>
-      <c r="C72">
-        <v>25</v>
+      <c r="B72" s="1">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>25</v>
-      </c>
-      <c r="C73">
-        <v>24</v>
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>25</v>
-      </c>
-      <c r="C74">
-        <v>26</v>
+      <c r="B74" s="1">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>26</v>
-      </c>
-      <c r="C75">
-        <v>25</v>
+      <c r="B75" s="1">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>14</v>
-      </c>
-      <c r="C76">
-        <v>26</v>
+      <c r="B76" s="1">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>26</v>
-      </c>
-      <c r="C77">
-        <v>14</v>
+      <c r="B77" s="1">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>26</v>
-      </c>
-      <c r="C78">
-        <v>27</v>
+      <c r="B78" s="1">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>27</v>
-      </c>
-      <c r="C79">
-        <v>26</v>
+      <c r="B79" s="1">
+        <v>19</v>
+      </c>
+      <c r="C79" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>27</v>
-      </c>
-      <c r="C80">
-        <v>28</v>
+      <c r="B80" s="1">
+        <v>19</v>
+      </c>
+      <c r="C80" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>28</v>
-      </c>
-      <c r="C81">
-        <v>27</v>
+      <c r="B81" s="1">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1292,10 +1293,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C83">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1314,10 +1315,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C84">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,10 +1326,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,10 +1337,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1351,7 @@
         <v>30</v>
       </c>
       <c r="C87">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,10 +1359,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,10 +1370,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,10 +1381,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="C91">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,10 +1403,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C92">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,7 +1414,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C93">
         <v>21</v>
@@ -1424,10 +1425,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,10 +1436,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,10 +1447,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,32 +1458,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C97">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>30</v>
-      </c>
-      <c r="C98">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>32</v>
-      </c>
-      <c r="C99">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
